--- a/data/raw/election/voters-age-sex-education/2023/Muş.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Muş.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:53:47-26478272219" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="35">
   <si>
     <t>Muş</t>
   </si>
@@ -119,6 +118,12 @@
   </si>
   <si>
     <t>Varto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -652,7 +657,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -666,16 +671,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1000,10 +1014,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161:A162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,52 +1033,52 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1118,11 +1132,11 @@
       <c r="F6" s="4">
         <v>6</v>
       </c>
-      <c r="G6" s="4">
-        <v>2.9790000000000001</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1.9690000000000001</v>
+      <c r="G6" s="5">
+        <v>2979</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1969</v>
       </c>
       <c r="I6" s="4">
         <v>262</v>
@@ -1136,8 +1150,8 @@
       <c r="L6" s="4">
         <v>40</v>
       </c>
-      <c r="M6" s="5">
-        <v>5.7089999999999996</v>
+      <c r="M6" s="6">
+        <v>5709</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1157,11 +1171,11 @@
       <c r="F7" s="4">
         <v>3</v>
       </c>
-      <c r="G7" s="4">
-        <v>2.2450000000000001</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1.881</v>
+      <c r="G7" s="5">
+        <v>2245</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1881</v>
       </c>
       <c r="I7" s="4">
         <v>427</v>
@@ -1175,8 +1189,8 @@
       <c r="L7" s="4">
         <v>16</v>
       </c>
-      <c r="M7" s="5">
-        <v>5.2309999999999999</v>
+      <c r="M7" s="6">
+        <v>5231</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1198,8 +1212,8 @@
       <c r="F8" s="4">
         <v>131</v>
       </c>
-      <c r="G8" s="4">
-        <v>1.1599999999999999</v>
+      <c r="G8" s="5">
+        <v>1160</v>
       </c>
       <c r="H8" s="4">
         <v>588</v>
@@ -1216,8 +1230,8 @@
       <c r="L8" s="4">
         <v>11</v>
       </c>
-      <c r="M8" s="5">
-        <v>3.06</v>
+      <c r="M8" s="6">
+        <v>3060</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1255,8 +1269,8 @@
       <c r="L9" s="4">
         <v>27</v>
       </c>
-      <c r="M9" s="5">
-        <v>2.9470000000000001</v>
+      <c r="M9" s="6">
+        <v>2947</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1296,8 +1310,8 @@
       <c r="L10" s="4">
         <v>34</v>
       </c>
-      <c r="M10" s="5">
-        <v>2.5880000000000001</v>
+      <c r="M10" s="6">
+        <v>2588</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1335,8 +1349,8 @@
       <c r="L11" s="4">
         <v>50</v>
       </c>
-      <c r="M11" s="5">
-        <v>2.383</v>
+      <c r="M11" s="6">
+        <v>2383</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1376,8 +1390,8 @@
       <c r="L12" s="4">
         <v>18</v>
       </c>
-      <c r="M12" s="5">
-        <v>2.012</v>
+      <c r="M12" s="6">
+        <v>2012</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1415,8 +1429,8 @@
       <c r="L13" s="4">
         <v>29</v>
       </c>
-      <c r="M13" s="5">
-        <v>2.0179999999999998</v>
+      <c r="M13" s="6">
+        <v>2018</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1456,8 +1470,8 @@
       <c r="L14" s="4">
         <v>15</v>
       </c>
-      <c r="M14" s="5">
-        <v>1.9490000000000001</v>
+      <c r="M14" s="6">
+        <v>1949</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1495,8 +1509,8 @@
       <c r="L15" s="4">
         <v>34</v>
       </c>
-      <c r="M15" s="5">
-        <v>1.9139999999999999</v>
+      <c r="M15" s="6">
+        <v>1914</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1536,8 +1550,8 @@
       <c r="L16" s="4">
         <v>11</v>
       </c>
-      <c r="M16" s="5">
-        <v>1.6259999999999999</v>
+      <c r="M16" s="6">
+        <v>1626</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1575,8 +1589,8 @@
       <c r="L17" s="4">
         <v>20</v>
       </c>
-      <c r="M17" s="5">
-        <v>1.5469999999999999</v>
+      <c r="M17" s="6">
+        <v>1547</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1616,8 +1630,8 @@
       <c r="L18" s="4">
         <v>13</v>
       </c>
-      <c r="M18" s="5">
-        <v>1.54</v>
+      <c r="M18" s="6">
+        <v>1540</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1655,8 +1669,8 @@
       <c r="L19" s="4">
         <v>13</v>
       </c>
-      <c r="M19" s="5">
-        <v>1.339</v>
+      <c r="M19" s="6">
+        <v>1339</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1696,8 +1710,8 @@
       <c r="L20" s="4">
         <v>4</v>
       </c>
-      <c r="M20" s="5">
-        <v>1.254</v>
+      <c r="M20" s="6">
+        <v>1254</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1735,7 +1749,7 @@
       <c r="L21" s="4">
         <v>13</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="7">
         <v>982</v>
       </c>
     </row>
@@ -1776,7 +1790,7 @@
       <c r="L22" s="4">
         <v>2</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="7">
         <v>964</v>
       </c>
     </row>
@@ -1815,7 +1829,7 @@
       <c r="L23" s="4">
         <v>13</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="7">
         <v>895</v>
       </c>
     </row>
@@ -1856,7 +1870,7 @@
       <c r="L24" s="4">
         <v>6</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="7">
         <v>813</v>
       </c>
     </row>
@@ -1895,7 +1909,7 @@
       <c r="L25" s="4">
         <v>12</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="7">
         <v>891</v>
       </c>
     </row>
@@ -1936,7 +1950,7 @@
       <c r="L26" s="4">
         <v>1</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="7">
         <v>490</v>
       </c>
     </row>
@@ -1975,7 +1989,7 @@
       <c r="L27" s="4">
         <v>16</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="7">
         <v>654</v>
       </c>
     </row>
@@ -2016,7 +2030,7 @@
       <c r="L28" s="4">
         <v>6</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="7">
         <v>571</v>
       </c>
     </row>
@@ -2055,7 +2069,7 @@
       <c r="L29" s="4">
         <v>30</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M29" s="7">
         <v>895</v>
       </c>
     </row>
@@ -2063,46 +2077,46 @@
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>4.8789999999999996</v>
-      </c>
-      <c r="D30" s="5">
-        <v>4.8259999999999996</v>
-      </c>
-      <c r="E30" s="5">
-        <v>8.7680000000000007</v>
-      </c>
-      <c r="F30" s="5">
-        <v>3.2480000000000002</v>
-      </c>
-      <c r="G30" s="5">
-        <v>10.135999999999999</v>
-      </c>
-      <c r="H30" s="5">
-        <v>7.9409999999999998</v>
-      </c>
-      <c r="I30" s="5">
-        <v>3.6179999999999999</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="B30" s="8"/>
+      <c r="C30" s="6">
+        <v>4879</v>
+      </c>
+      <c r="D30" s="6">
+        <v>4826</v>
+      </c>
+      <c r="E30" s="6">
+        <v>8768</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3248</v>
+      </c>
+      <c r="G30" s="6">
+        <v>10136</v>
+      </c>
+      <c r="H30" s="6">
+        <v>7941</v>
+      </c>
+      <c r="I30" s="6">
+        <v>3618</v>
+      </c>
+      <c r="J30" s="7">
         <v>405</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="7">
         <v>17</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="7">
         <v>434</v>
       </c>
-      <c r="M30" s="5">
-        <v>44.271999999999998</v>
+      <c r="M30" s="6">
+        <v>44272</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2174,8 +2188,8 @@
       <c r="L32" s="4">
         <v>15</v>
       </c>
-      <c r="M32" s="5">
-        <v>1.845</v>
+      <c r="M32" s="6">
+        <v>1845</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2213,8 +2227,8 @@
       <c r="L33" s="4">
         <v>1</v>
       </c>
-      <c r="M33" s="5">
-        <v>1.9159999999999999</v>
+      <c r="M33" s="6">
+        <v>1916</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2254,8 +2268,8 @@
       <c r="L34" s="4">
         <v>1</v>
       </c>
-      <c r="M34" s="5">
-        <v>1.0649999999999999</v>
+      <c r="M34" s="6">
+        <v>1065</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2293,8 +2307,8 @@
       <c r="L35" s="4">
         <v>7</v>
       </c>
-      <c r="M35" s="5">
-        <v>1.016</v>
+      <c r="M35" s="6">
+        <v>1016</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2334,7 +2348,7 @@
       <c r="L36" s="4">
         <v>7</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M36" s="7">
         <v>931</v>
       </c>
     </row>
@@ -2373,7 +2387,7 @@
       <c r="L37" s="4">
         <v>14</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="7">
         <v>816</v>
       </c>
     </row>
@@ -2414,7 +2428,7 @@
       <c r="L38" s="4">
         <v>2</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="7">
         <v>684</v>
       </c>
     </row>
@@ -2453,7 +2467,7 @@
       <c r="L39" s="4">
         <v>6</v>
       </c>
-      <c r="M39" s="5">
+      <c r="M39" s="7">
         <v>656</v>
       </c>
     </row>
@@ -2494,7 +2508,7 @@
       <c r="L40" s="4">
         <v>3</v>
       </c>
-      <c r="M40" s="5">
+      <c r="M40" s="7">
         <v>696</v>
       </c>
     </row>
@@ -2533,7 +2547,7 @@
       <c r="L41" s="4">
         <v>5</v>
       </c>
-      <c r="M41" s="5">
+      <c r="M41" s="7">
         <v>724</v>
       </c>
     </row>
@@ -2574,7 +2588,7 @@
       <c r="L42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M42" s="5">
+      <c r="M42" s="7">
         <v>584</v>
       </c>
     </row>
@@ -2613,7 +2627,7 @@
       <c r="L43" s="4">
         <v>5</v>
       </c>
-      <c r="M43" s="5">
+      <c r="M43" s="7">
         <v>536</v>
       </c>
     </row>
@@ -2654,7 +2668,7 @@
       <c r="L44" s="4">
         <v>2</v>
       </c>
-      <c r="M44" s="5">
+      <c r="M44" s="7">
         <v>473</v>
       </c>
     </row>
@@ -2693,7 +2707,7 @@
       <c r="L45" s="4">
         <v>4</v>
       </c>
-      <c r="M45" s="5">
+      <c r="M45" s="7">
         <v>448</v>
       </c>
     </row>
@@ -2734,7 +2748,7 @@
       <c r="L46" s="4">
         <v>2</v>
       </c>
-      <c r="M46" s="5">
+      <c r="M46" s="7">
         <v>499</v>
       </c>
     </row>
@@ -2773,7 +2787,7 @@
       <c r="L47" s="4">
         <v>3</v>
       </c>
-      <c r="M47" s="5">
+      <c r="M47" s="7">
         <v>374</v>
       </c>
     </row>
@@ -2814,7 +2828,7 @@
       <c r="L48" s="4">
         <v>2</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="7">
         <v>390</v>
       </c>
     </row>
@@ -2853,7 +2867,7 @@
       <c r="L49" s="4">
         <v>7</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="7">
         <v>347</v>
       </c>
     </row>
@@ -2894,7 +2908,7 @@
       <c r="L50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M50" s="5">
+      <c r="M50" s="7">
         <v>276</v>
       </c>
     </row>
@@ -2933,7 +2947,7 @@
       <c r="L51" s="4">
         <v>4</v>
       </c>
-      <c r="M51" s="5">
+      <c r="M51" s="7">
         <v>317</v>
       </c>
     </row>
@@ -2974,7 +2988,7 @@
       <c r="L52" s="4">
         <v>1</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M52" s="7">
         <v>146</v>
       </c>
     </row>
@@ -3013,7 +3027,7 @@
       <c r="L53" s="4">
         <v>3</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="7">
         <v>180</v>
       </c>
     </row>
@@ -3054,7 +3068,7 @@
       <c r="L54" s="4">
         <v>2</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="7">
         <v>168</v>
       </c>
     </row>
@@ -3093,7 +3107,7 @@
       <c r="L55" s="4">
         <v>12</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="7">
         <v>314</v>
       </c>
     </row>
@@ -3101,46 +3115,46 @@
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
+      <c r="B56" s="8"/>
+      <c r="C56" s="7">
         <v>943</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="7">
         <v>728</v>
       </c>
-      <c r="E56" s="5">
-        <v>1.6579999999999999</v>
-      </c>
-      <c r="F56" s="5">
-        <v>1.927</v>
-      </c>
-      <c r="G56" s="5">
-        <v>3.702</v>
-      </c>
-      <c r="H56" s="5">
-        <v>5.0049999999999999</v>
-      </c>
-      <c r="I56" s="5">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="J56" s="5">
+      <c r="E56" s="6">
+        <v>1658</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1927</v>
+      </c>
+      <c r="G56" s="6">
+        <v>3702</v>
+      </c>
+      <c r="H56" s="6">
+        <v>5005</v>
+      </c>
+      <c r="I56" s="6">
+        <v>1259</v>
+      </c>
+      <c r="J56" s="7">
         <v>67</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="7">
         <v>4</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="7">
         <v>108</v>
       </c>
-      <c r="M56" s="5">
-        <v>15.401</v>
+      <c r="M56" s="6">
+        <v>15401</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3212,8 +3226,8 @@
       <c r="L58" s="4">
         <v>5</v>
       </c>
-      <c r="M58" s="5">
-        <v>1.839</v>
+      <c r="M58" s="6">
+        <v>1839</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3251,8 +3265,8 @@
       <c r="L59" s="4">
         <v>1</v>
       </c>
-      <c r="M59" s="5">
-        <v>1.75</v>
+      <c r="M59" s="6">
+        <v>1750</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3292,7 +3306,7 @@
       <c r="L60" s="4">
         <v>2</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="7">
         <v>922</v>
       </c>
     </row>
@@ -3331,7 +3345,7 @@
       <c r="L61" s="4">
         <v>1</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M61" s="7">
         <v>768</v>
       </c>
     </row>
@@ -3372,7 +3386,7 @@
       <c r="L62" s="4">
         <v>3</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M62" s="7">
         <v>824</v>
       </c>
     </row>
@@ -3411,7 +3425,7 @@
       <c r="L63" s="4">
         <v>3</v>
       </c>
-      <c r="M63" s="5">
+      <c r="M63" s="7">
         <v>758</v>
       </c>
     </row>
@@ -3452,7 +3466,7 @@
       <c r="L64" s="4">
         <v>3</v>
       </c>
-      <c r="M64" s="5">
+      <c r="M64" s="7">
         <v>561</v>
       </c>
     </row>
@@ -3491,7 +3505,7 @@
       <c r="L65" s="4">
         <v>2</v>
       </c>
-      <c r="M65" s="5">
+      <c r="M65" s="7">
         <v>556</v>
       </c>
     </row>
@@ -3532,7 +3546,7 @@
       <c r="L66" s="4">
         <v>1</v>
       </c>
-      <c r="M66" s="5">
+      <c r="M66" s="7">
         <v>604</v>
       </c>
     </row>
@@ -3571,7 +3585,7 @@
       <c r="L67" s="4">
         <v>4</v>
       </c>
-      <c r="M67" s="5">
+      <c r="M67" s="7">
         <v>641</v>
       </c>
     </row>
@@ -3612,7 +3626,7 @@
       <c r="L68" s="4">
         <v>4</v>
       </c>
-      <c r="M68" s="5">
+      <c r="M68" s="7">
         <v>526</v>
       </c>
     </row>
@@ -3651,7 +3665,7 @@
       <c r="L69" s="4">
         <v>6</v>
       </c>
-      <c r="M69" s="5">
+      <c r="M69" s="7">
         <v>523</v>
       </c>
     </row>
@@ -3692,7 +3706,7 @@
       <c r="L70" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M70" s="5">
+      <c r="M70" s="7">
         <v>421</v>
       </c>
     </row>
@@ -3731,7 +3745,7 @@
       <c r="L71" s="4">
         <v>3</v>
       </c>
-      <c r="M71" s="5">
+      <c r="M71" s="7">
         <v>390</v>
       </c>
     </row>
@@ -3772,7 +3786,7 @@
       <c r="L72" s="4">
         <v>4</v>
       </c>
-      <c r="M72" s="5">
+      <c r="M72" s="7">
         <v>449</v>
       </c>
     </row>
@@ -3811,7 +3825,7 @@
       <c r="L73" s="4">
         <v>4</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M73" s="7">
         <v>396</v>
       </c>
     </row>
@@ -3852,7 +3866,7 @@
       <c r="L74" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M74" s="5">
+      <c r="M74" s="7">
         <v>362</v>
       </c>
     </row>
@@ -3891,7 +3905,7 @@
       <c r="L75" s="4">
         <v>3</v>
       </c>
-      <c r="M75" s="5">
+      <c r="M75" s="7">
         <v>273</v>
       </c>
     </row>
@@ -3932,7 +3946,7 @@
       <c r="L76" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M76" s="5">
+      <c r="M76" s="7">
         <v>331</v>
       </c>
     </row>
@@ -3971,7 +3985,7 @@
       <c r="L77" s="4">
         <v>5</v>
       </c>
-      <c r="M77" s="5">
+      <c r="M77" s="7">
         <v>328</v>
       </c>
     </row>
@@ -4012,7 +4026,7 @@
       <c r="L78" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="7">
         <v>171</v>
       </c>
     </row>
@@ -4051,7 +4065,7 @@
       <c r="L79" s="4">
         <v>2</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="7">
         <v>242</v>
       </c>
     </row>
@@ -4092,7 +4106,7 @@
       <c r="L80" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="7">
         <v>167</v>
       </c>
     </row>
@@ -4131,7 +4145,7 @@
       <c r="L81" s="4">
         <v>5</v>
       </c>
-      <c r="M81" s="5">
+      <c r="M81" s="7">
         <v>306</v>
       </c>
     </row>
@@ -4139,46 +4153,46 @@
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
-        <v>1.288</v>
-      </c>
-      <c r="D82" s="5">
-        <v>1.2889999999999999</v>
-      </c>
-      <c r="E82" s="5">
-        <v>1.82</v>
-      </c>
-      <c r="F82" s="5">
-        <v>1.397</v>
-      </c>
-      <c r="G82" s="5">
-        <v>3.8</v>
-      </c>
-      <c r="H82" s="5">
-        <v>3.472</v>
-      </c>
-      <c r="I82" s="5">
+      <c r="B82" s="8"/>
+      <c r="C82" s="6">
+        <v>1288</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1289</v>
+      </c>
+      <c r="E82" s="6">
+        <v>1820</v>
+      </c>
+      <c r="F82" s="6">
+        <v>1397</v>
+      </c>
+      <c r="G82" s="6">
+        <v>3800</v>
+      </c>
+      <c r="H82" s="6">
+        <v>3472</v>
+      </c>
+      <c r="I82" s="7">
         <v>908</v>
       </c>
-      <c r="J82" s="5">
+      <c r="J82" s="7">
         <v>66</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="7">
         <v>7</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="7">
         <v>61</v>
       </c>
-      <c r="M82" s="5">
-        <v>14.108000000000001</v>
+      <c r="M82" s="6">
+        <v>14108</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4232,11 +4246,11 @@
       <c r="F84" s="4">
         <v>1</v>
       </c>
-      <c r="G84" s="4">
-        <v>1.6890000000000001</v>
-      </c>
-      <c r="H84" s="4">
-        <v>1.2050000000000001</v>
+      <c r="G84" s="5">
+        <v>1689</v>
+      </c>
+      <c r="H84" s="5">
+        <v>1205</v>
       </c>
       <c r="I84" s="4">
         <v>193</v>
@@ -4250,8 +4264,8 @@
       <c r="L84" s="4">
         <v>28</v>
       </c>
-      <c r="M84" s="5">
-        <v>3.44</v>
+      <c r="M84" s="6">
+        <v>3440</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4271,11 +4285,11 @@
       <c r="F85" s="4">
         <v>1</v>
       </c>
-      <c r="G85" s="4">
-        <v>1.48</v>
-      </c>
-      <c r="H85" s="4">
-        <v>1.1399999999999999</v>
+      <c r="G85" s="5">
+        <v>1480</v>
+      </c>
+      <c r="H85" s="5">
+        <v>1140</v>
       </c>
       <c r="I85" s="4">
         <v>275</v>
@@ -4289,8 +4303,8 @@
       <c r="L85" s="4">
         <v>9</v>
       </c>
-      <c r="M85" s="5">
-        <v>3.2360000000000002</v>
+      <c r="M85" s="6">
+        <v>3236</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4330,8 +4344,8 @@
       <c r="L86" s="4">
         <v>6</v>
       </c>
-      <c r="M86" s="5">
-        <v>1.9370000000000001</v>
+      <c r="M86" s="6">
+        <v>1937</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4369,8 +4383,8 @@
       <c r="L87" s="4">
         <v>11</v>
       </c>
-      <c r="M87" s="5">
-        <v>1.7569999999999999</v>
+      <c r="M87" s="6">
+        <v>1757</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4410,8 +4424,8 @@
       <c r="L88" s="4">
         <v>13</v>
       </c>
-      <c r="M88" s="5">
-        <v>1.5529999999999999</v>
+      <c r="M88" s="6">
+        <v>1553</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4449,8 +4463,8 @@
       <c r="L89" s="4">
         <v>19</v>
       </c>
-      <c r="M89" s="5">
-        <v>1.43</v>
+      <c r="M89" s="6">
+        <v>1430</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4490,8 +4504,8 @@
       <c r="L90" s="4">
         <v>15</v>
       </c>
-      <c r="M90" s="5">
-        <v>1.206</v>
+      <c r="M90" s="6">
+        <v>1206</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4529,8 +4543,8 @@
       <c r="L91" s="4">
         <v>7</v>
       </c>
-      <c r="M91" s="5">
-        <v>1.113</v>
+      <c r="M91" s="6">
+        <v>1113</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4570,8 +4584,8 @@
       <c r="L92" s="4">
         <v>9</v>
       </c>
-      <c r="M92" s="5">
-        <v>1.1739999999999999</v>
+      <c r="M92" s="6">
+        <v>1174</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4609,8 +4623,8 @@
       <c r="L93" s="4">
         <v>5</v>
       </c>
-      <c r="M93" s="5">
-        <v>1.097</v>
+      <c r="M93" s="6">
+        <v>1097</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4650,8 +4664,8 @@
       <c r="L94" s="4">
         <v>18</v>
       </c>
-      <c r="M94" s="5">
-        <v>1.0229999999999999</v>
+      <c r="M94" s="6">
+        <v>1023</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4689,7 +4703,7 @@
       <c r="L95" s="4">
         <v>16</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="7">
         <v>891</v>
       </c>
     </row>
@@ -4730,7 +4744,7 @@
       <c r="L96" s="4">
         <v>6</v>
       </c>
-      <c r="M96" s="5">
+      <c r="M96" s="7">
         <v>972</v>
       </c>
     </row>
@@ -4769,7 +4783,7 @@
       <c r="L97" s="4">
         <v>3</v>
       </c>
-      <c r="M97" s="5">
+      <c r="M97" s="7">
         <v>862</v>
       </c>
     </row>
@@ -4810,7 +4824,7 @@
       <c r="L98" s="4">
         <v>5</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M98" s="7">
         <v>821</v>
       </c>
     </row>
@@ -4849,7 +4863,7 @@
       <c r="L99" s="4">
         <v>10</v>
       </c>
-      <c r="M99" s="5">
+      <c r="M99" s="7">
         <v>653</v>
       </c>
     </row>
@@ -4890,7 +4904,7 @@
       <c r="L100" s="4">
         <v>3</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="7">
         <v>647</v>
       </c>
     </row>
@@ -4929,7 +4943,7 @@
       <c r="L101" s="4">
         <v>12</v>
       </c>
-      <c r="M101" s="5">
+      <c r="M101" s="7">
         <v>597</v>
       </c>
     </row>
@@ -4970,7 +4984,7 @@
       <c r="L102" s="4">
         <v>4</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="7">
         <v>600</v>
       </c>
     </row>
@@ -5009,7 +5023,7 @@
       <c r="L103" s="4">
         <v>11</v>
       </c>
-      <c r="M103" s="5">
+      <c r="M103" s="7">
         <v>576</v>
       </c>
     </row>
@@ -5050,7 +5064,7 @@
       <c r="L104" s="4">
         <v>2</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="7">
         <v>364</v>
       </c>
     </row>
@@ -5089,7 +5103,7 @@
       <c r="L105" s="4">
         <v>8</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="7">
         <v>508</v>
       </c>
     </row>
@@ -5130,7 +5144,7 @@
       <c r="L106" s="4">
         <v>2</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="7">
         <v>395</v>
       </c>
     </row>
@@ -5169,7 +5183,7 @@
       <c r="L107" s="4">
         <v>16</v>
       </c>
-      <c r="M107" s="5">
+      <c r="M107" s="7">
         <v>605</v>
       </c>
     </row>
@@ -5177,46 +5191,46 @@
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
-        <v>2.3420000000000001</v>
-      </c>
-      <c r="D108" s="5">
-        <v>2.605</v>
-      </c>
-      <c r="E108" s="5">
-        <v>5.0419999999999998</v>
-      </c>
-      <c r="F108" s="5">
-        <v>1.948</v>
-      </c>
-      <c r="G108" s="5">
-        <v>6.7320000000000002</v>
-      </c>
-      <c r="H108" s="5">
-        <v>5.5720000000000001</v>
-      </c>
-      <c r="I108" s="5">
-        <v>2.6989999999999998</v>
-      </c>
-      <c r="J108" s="5">
+      <c r="B108" s="8"/>
+      <c r="C108" s="6">
+        <v>2342</v>
+      </c>
+      <c r="D108" s="6">
+        <v>2605</v>
+      </c>
+      <c r="E108" s="6">
+        <v>5042</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1948</v>
+      </c>
+      <c r="G108" s="6">
+        <v>6732</v>
+      </c>
+      <c r="H108" s="6">
+        <v>5572</v>
+      </c>
+      <c r="I108" s="6">
+        <v>2699</v>
+      </c>
+      <c r="J108" s="7">
         <v>268</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="7">
         <v>11</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="7">
         <v>238</v>
       </c>
-      <c r="M108" s="5">
-        <v>27.457000000000001</v>
+      <c r="M108" s="6">
+        <v>27457</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5270,14 +5284,14 @@
       <c r="F110" s="4">
         <v>6</v>
       </c>
-      <c r="G110" s="4">
-        <v>4.1630000000000003</v>
-      </c>
-      <c r="H110" s="4">
-        <v>6.633</v>
-      </c>
-      <c r="I110" s="4">
-        <v>1.1040000000000001</v>
+      <c r="G110" s="5">
+        <v>4163</v>
+      </c>
+      <c r="H110" s="5">
+        <v>6633</v>
+      </c>
+      <c r="I110" s="5">
+        <v>1104</v>
       </c>
       <c r="J110" s="4">
         <v>13</v>
@@ -5288,8 +5302,8 @@
       <c r="L110" s="4">
         <v>69</v>
       </c>
-      <c r="M110" s="5">
-        <v>12.56</v>
+      <c r="M110" s="6">
+        <v>12560</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5309,14 +5323,14 @@
       <c r="F111" s="4">
         <v>17</v>
       </c>
-      <c r="G111" s="4">
-        <v>4.9939999999999998</v>
-      </c>
-      <c r="H111" s="4">
-        <v>5.2690000000000001</v>
-      </c>
-      <c r="I111" s="4">
-        <v>1.1819999999999999</v>
+      <c r="G111" s="5">
+        <v>4994</v>
+      </c>
+      <c r="H111" s="5">
+        <v>5269</v>
+      </c>
+      <c r="I111" s="5">
+        <v>1182</v>
       </c>
       <c r="J111" s="4">
         <v>8</v>
@@ -5327,8 +5341,8 @@
       <c r="L111" s="4">
         <v>19</v>
       </c>
-      <c r="M111" s="5">
-        <v>12.84</v>
+      <c r="M111" s="6">
+        <v>12840</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5350,14 +5364,14 @@
       <c r="F112" s="4">
         <v>253</v>
       </c>
-      <c r="G112" s="4">
-        <v>1.8740000000000001</v>
-      </c>
-      <c r="H112" s="4">
-        <v>2.89</v>
-      </c>
-      <c r="I112" s="4">
-        <v>2.774</v>
+      <c r="G112" s="5">
+        <v>1874</v>
+      </c>
+      <c r="H112" s="5">
+        <v>2890</v>
+      </c>
+      <c r="I112" s="5">
+        <v>2774</v>
       </c>
       <c r="J112" s="4">
         <v>264</v>
@@ -5368,8 +5382,8 @@
       <c r="L112" s="4">
         <v>24</v>
       </c>
-      <c r="M112" s="5">
-        <v>8.6479999999999997</v>
+      <c r="M112" s="6">
+        <v>8648</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5389,14 +5403,14 @@
       <c r="F113" s="4">
         <v>391</v>
       </c>
-      <c r="G113" s="4">
-        <v>2.1970000000000001</v>
-      </c>
-      <c r="H113" s="4">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="I113" s="4">
-        <v>2.9209999999999998</v>
+      <c r="G113" s="5">
+        <v>2197</v>
+      </c>
+      <c r="H113" s="5">
+        <v>1703</v>
+      </c>
+      <c r="I113" s="5">
+        <v>2921</v>
       </c>
       <c r="J113" s="4">
         <v>260</v>
@@ -5407,8 +5421,8 @@
       <c r="L113" s="4">
         <v>35</v>
       </c>
-      <c r="M113" s="5">
-        <v>9.1140000000000008</v>
+      <c r="M113" s="6">
+        <v>9114</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5427,17 +5441,17 @@
       <c r="E114" s="4">
         <v>180</v>
       </c>
-      <c r="F114" s="4">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="G114" s="4">
-        <v>1.018</v>
-      </c>
-      <c r="H114" s="4">
-        <v>2.4620000000000002</v>
-      </c>
-      <c r="I114" s="4">
-        <v>2.85</v>
+      <c r="F114" s="5">
+        <v>1255</v>
+      </c>
+      <c r="G114" s="5">
+        <v>1018</v>
+      </c>
+      <c r="H114" s="5">
+        <v>2462</v>
+      </c>
+      <c r="I114" s="5">
+        <v>2850</v>
       </c>
       <c r="J114" s="4">
         <v>537</v>
@@ -5448,8 +5462,8 @@
       <c r="L114" s="4">
         <v>34</v>
       </c>
-      <c r="M114" s="5">
-        <v>8.6579999999999995</v>
+      <c r="M114" s="6">
+        <v>8658</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5466,17 +5480,17 @@
       <c r="E115" s="4">
         <v>403</v>
       </c>
-      <c r="F115" s="4">
-        <v>1.3979999999999999</v>
-      </c>
-      <c r="G115" s="4">
-        <v>1.1739999999999999</v>
-      </c>
-      <c r="H115" s="4">
-        <v>1.7370000000000001</v>
-      </c>
-      <c r="I115" s="4">
-        <v>1.8480000000000001</v>
+      <c r="F115" s="5">
+        <v>1398</v>
+      </c>
+      <c r="G115" s="5">
+        <v>1174</v>
+      </c>
+      <c r="H115" s="5">
+        <v>1737</v>
+      </c>
+      <c r="I115" s="5">
+        <v>1848</v>
       </c>
       <c r="J115" s="4">
         <v>276</v>
@@ -5487,8 +5501,8 @@
       <c r="L115" s="4">
         <v>78</v>
       </c>
-      <c r="M115" s="5">
-        <v>8.1359999999999992</v>
+      <c r="M115" s="6">
+        <v>8136</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5507,17 +5521,17 @@
       <c r="E116" s="4">
         <v>347</v>
       </c>
-      <c r="F116" s="4">
-        <v>1.238</v>
+      <c r="F116" s="5">
+        <v>1238</v>
       </c>
       <c r="G116" s="4">
         <v>673</v>
       </c>
-      <c r="H116" s="4">
-        <v>2.1920000000000002</v>
-      </c>
-      <c r="I116" s="4">
-        <v>1.774</v>
+      <c r="H116" s="5">
+        <v>2192</v>
+      </c>
+      <c r="I116" s="5">
+        <v>1774</v>
       </c>
       <c r="J116" s="4">
         <v>357</v>
@@ -5528,8 +5542,8 @@
       <c r="L116" s="4">
         <v>34</v>
       </c>
-      <c r="M116" s="5">
-        <v>6.8920000000000003</v>
+      <c r="M116" s="6">
+        <v>6892</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5552,8 +5566,8 @@
       <c r="G117" s="4">
         <v>899</v>
       </c>
-      <c r="H117" s="4">
-        <v>1.5209999999999999</v>
+      <c r="H117" s="5">
+        <v>1521</v>
       </c>
       <c r="I117" s="4">
         <v>757</v>
@@ -5567,8 +5581,8 @@
       <c r="L117" s="4">
         <v>40</v>
       </c>
-      <c r="M117" s="5">
-        <v>5.9770000000000003</v>
+      <c r="M117" s="6">
+        <v>5977</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5587,17 +5601,17 @@
       <c r="E118" s="4">
         <v>545</v>
       </c>
-      <c r="F118" s="4">
-        <v>1.079</v>
-      </c>
-      <c r="G118" s="4">
-        <v>1.05</v>
-      </c>
-      <c r="H118" s="4">
-        <v>2.133</v>
-      </c>
-      <c r="I118" s="4">
-        <v>1.163</v>
+      <c r="F118" s="5">
+        <v>1079</v>
+      </c>
+      <c r="G118" s="5">
+        <v>1050</v>
+      </c>
+      <c r="H118" s="5">
+        <v>2133</v>
+      </c>
+      <c r="I118" s="5">
+        <v>1163</v>
       </c>
       <c r="J118" s="4">
         <v>214</v>
@@ -5608,8 +5622,8 @@
       <c r="L118" s="4">
         <v>29</v>
       </c>
-      <c r="M118" s="5">
-        <v>6.4930000000000003</v>
+      <c r="M118" s="6">
+        <v>6493</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5623,17 +5637,17 @@
       <c r="D119" s="4">
         <v>436</v>
       </c>
-      <c r="E119" s="4">
-        <v>1.103</v>
+      <c r="E119" s="5">
+        <v>1103</v>
       </c>
       <c r="F119" s="4">
         <v>608</v>
       </c>
-      <c r="G119" s="4">
-        <v>1.194</v>
-      </c>
-      <c r="H119" s="4">
-        <v>1.44</v>
+      <c r="G119" s="5">
+        <v>1194</v>
+      </c>
+      <c r="H119" s="5">
+        <v>1440</v>
       </c>
       <c r="I119" s="4">
         <v>415</v>
@@ -5647,8 +5661,8 @@
       <c r="L119" s="4">
         <v>49</v>
       </c>
-      <c r="M119" s="5">
-        <v>5.7640000000000002</v>
+      <c r="M119" s="6">
+        <v>5764</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5673,8 +5687,8 @@
       <c r="G120" s="4">
         <v>771</v>
       </c>
-      <c r="H120" s="4">
-        <v>1.458</v>
+      <c r="H120" s="5">
+        <v>1458</v>
       </c>
       <c r="I120" s="4">
         <v>740</v>
@@ -5688,8 +5702,8 @@
       <c r="L120" s="4">
         <v>28</v>
       </c>
-      <c r="M120" s="5">
-        <v>4.5220000000000002</v>
+      <c r="M120" s="6">
+        <v>4522</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5712,8 +5726,8 @@
       <c r="G121" s="4">
         <v>889</v>
       </c>
-      <c r="H121" s="4">
-        <v>1.0760000000000001</v>
+      <c r="H121" s="5">
+        <v>1076</v>
       </c>
       <c r="I121" s="4">
         <v>192</v>
@@ -5727,8 +5741,8 @@
       <c r="L121" s="4">
         <v>39</v>
       </c>
-      <c r="M121" s="5">
-        <v>4.2910000000000004</v>
+      <c r="M121" s="6">
+        <v>4291</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5768,8 +5782,8 @@
       <c r="L122" s="4">
         <v>19</v>
       </c>
-      <c r="M122" s="5">
-        <v>3.6280000000000001</v>
+      <c r="M122" s="6">
+        <v>3628</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5807,8 +5821,8 @@
       <c r="L123" s="4">
         <v>39</v>
       </c>
-      <c r="M123" s="5">
-        <v>3.1269999999999998</v>
+      <c r="M123" s="6">
+        <v>3127</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5848,8 +5862,8 @@
       <c r="L124" s="4">
         <v>19</v>
       </c>
-      <c r="M124" s="5">
-        <v>3.3370000000000002</v>
+      <c r="M124" s="6">
+        <v>3337</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5887,8 +5901,8 @@
       <c r="L125" s="4">
         <v>39</v>
       </c>
-      <c r="M125" s="5">
-        <v>2.7269999999999999</v>
+      <c r="M125" s="6">
+        <v>2727</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5928,8 +5942,8 @@
       <c r="L126" s="4">
         <v>12</v>
       </c>
-      <c r="M126" s="5">
-        <v>2.5110000000000001</v>
+      <c r="M126" s="6">
+        <v>2511</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5967,8 +5981,8 @@
       <c r="L127" s="4">
         <v>17</v>
       </c>
-      <c r="M127" s="5">
-        <v>2.3580000000000001</v>
+      <c r="M127" s="6">
+        <v>2358</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6008,8 +6022,8 @@
       <c r="L128" s="4">
         <v>11</v>
       </c>
-      <c r="M128" s="5">
-        <v>1.8069999999999999</v>
+      <c r="M128" s="6">
+        <v>1807</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6047,8 +6061,8 @@
       <c r="L129" s="4">
         <v>14</v>
       </c>
-      <c r="M129" s="5">
-        <v>1.8939999999999999</v>
+      <c r="M129" s="6">
+        <v>1894</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6088,8 +6102,8 @@
       <c r="L130" s="4">
         <v>10</v>
       </c>
-      <c r="M130" s="5">
-        <v>1.1439999999999999</v>
+      <c r="M130" s="6">
+        <v>1144</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6127,8 +6141,8 @@
       <c r="L131" s="4">
         <v>22</v>
       </c>
-      <c r="M131" s="5">
-        <v>1.444</v>
+      <c r="M131" s="6">
+        <v>1444</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6168,8 +6182,8 @@
       <c r="L132" s="4">
         <v>17</v>
       </c>
-      <c r="M132" s="5">
-        <v>1.2230000000000001</v>
+      <c r="M132" s="6">
+        <v>1223</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6177,8 +6191,8 @@
       <c r="B133" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="4">
-        <v>1.2150000000000001</v>
+      <c r="C133" s="5">
+        <v>1215</v>
       </c>
       <c r="D133" s="4">
         <v>250</v>
@@ -6207,54 +6221,54 @@
       <c r="L133" s="4">
         <v>76</v>
       </c>
-      <c r="M133" s="5">
-        <v>1.7310000000000001</v>
+      <c r="M133" s="6">
+        <v>1731</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>6.7279999999999998</v>
-      </c>
-      <c r="D134" s="5">
-        <v>7.1680000000000001</v>
-      </c>
-      <c r="E134" s="5">
-        <v>12.598000000000001</v>
-      </c>
-      <c r="F134" s="5">
-        <v>11.066000000000001</v>
-      </c>
-      <c r="G134" s="5">
-        <v>25.073</v>
-      </c>
-      <c r="H134" s="5">
-        <v>35.508000000000003</v>
-      </c>
-      <c r="I134" s="5">
-        <v>19.149999999999999</v>
-      </c>
-      <c r="J134" s="5">
-        <v>2.3319999999999999</v>
-      </c>
-      <c r="K134" s="5">
+      <c r="B134" s="8"/>
+      <c r="C134" s="6">
+        <v>6728</v>
+      </c>
+      <c r="D134" s="6">
+        <v>7168</v>
+      </c>
+      <c r="E134" s="6">
+        <v>12598</v>
+      </c>
+      <c r="F134" s="6">
+        <v>11066</v>
+      </c>
+      <c r="G134" s="6">
+        <v>25073</v>
+      </c>
+      <c r="H134" s="6">
+        <v>35508</v>
+      </c>
+      <c r="I134" s="6">
+        <v>19150</v>
+      </c>
+      <c r="J134" s="6">
+        <v>2332</v>
+      </c>
+      <c r="K134" s="7">
         <v>430</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="7">
         <v>773</v>
       </c>
-      <c r="M134" s="5">
-        <v>120.82599999999999</v>
+      <c r="M134" s="6">
+        <v>120826</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6326,8 +6340,8 @@
       <c r="L136" s="4">
         <v>9</v>
       </c>
-      <c r="M136" s="5">
-        <v>1.94</v>
+      <c r="M136" s="6">
+        <v>1940</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6365,8 +6379,8 @@
       <c r="L137" s="4">
         <v>9</v>
       </c>
-      <c r="M137" s="5">
-        <v>1.9139999999999999</v>
+      <c r="M137" s="6">
+        <v>1914</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6406,8 +6420,8 @@
       <c r="L138" s="4">
         <v>5</v>
       </c>
-      <c r="M138" s="5">
-        <v>1.2210000000000001</v>
+      <c r="M138" s="6">
+        <v>1221</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6445,8 +6459,8 @@
       <c r="L139" s="4">
         <v>2</v>
       </c>
-      <c r="M139" s="5">
-        <v>1.1200000000000001</v>
+      <c r="M139" s="6">
+        <v>1120</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6486,8 +6500,8 @@
       <c r="L140" s="4">
         <v>8</v>
       </c>
-      <c r="M140" s="5">
-        <v>1.0129999999999999</v>
+      <c r="M140" s="6">
+        <v>1013</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6525,7 +6539,7 @@
       <c r="L141" s="4">
         <v>8</v>
       </c>
-      <c r="M141" s="5">
+      <c r="M141" s="7">
         <v>962</v>
       </c>
     </row>
@@ -6566,7 +6580,7 @@
       <c r="L142" s="4">
         <v>23</v>
       </c>
-      <c r="M142" s="5">
+      <c r="M142" s="7">
         <v>831</v>
       </c>
     </row>
@@ -6605,7 +6619,7 @@
       <c r="L143" s="4">
         <v>20</v>
       </c>
-      <c r="M143" s="5">
+      <c r="M143" s="7">
         <v>774</v>
       </c>
     </row>
@@ -6646,7 +6660,7 @@
       <c r="L144" s="4">
         <v>33</v>
       </c>
-      <c r="M144" s="5">
+      <c r="M144" s="7">
         <v>919</v>
       </c>
     </row>
@@ -6685,7 +6699,7 @@
       <c r="L145" s="4">
         <v>18</v>
       </c>
-      <c r="M145" s="5">
+      <c r="M145" s="7">
         <v>896</v>
       </c>
     </row>
@@ -6726,7 +6740,7 @@
       <c r="L146" s="4">
         <v>31</v>
       </c>
-      <c r="M146" s="5">
+      <c r="M146" s="7">
         <v>756</v>
       </c>
     </row>
@@ -6765,7 +6779,7 @@
       <c r="L147" s="4">
         <v>23</v>
       </c>
-      <c r="M147" s="5">
+      <c r="M147" s="7">
         <v>768</v>
       </c>
     </row>
@@ -6806,7 +6820,7 @@
       <c r="L148" s="4">
         <v>29</v>
       </c>
-      <c r="M148" s="5">
+      <c r="M148" s="7">
         <v>731</v>
       </c>
     </row>
@@ -6845,7 +6859,7 @@
       <c r="L149" s="4">
         <v>15</v>
       </c>
-      <c r="M149" s="5">
+      <c r="M149" s="7">
         <v>703</v>
       </c>
     </row>
@@ -6886,7 +6900,7 @@
       <c r="L150" s="4">
         <v>25</v>
       </c>
-      <c r="M150" s="5">
+      <c r="M150" s="7">
         <v>706</v>
       </c>
     </row>
@@ -6925,7 +6939,7 @@
       <c r="L151" s="4">
         <v>23</v>
       </c>
-      <c r="M151" s="5">
+      <c r="M151" s="7">
         <v>610</v>
       </c>
     </row>
@@ -6966,7 +6980,7 @@
       <c r="L152" s="4">
         <v>21</v>
       </c>
-      <c r="M152" s="5">
+      <c r="M152" s="7">
         <v>622</v>
       </c>
     </row>
@@ -7005,7 +7019,7 @@
       <c r="L153" s="4">
         <v>13</v>
       </c>
-      <c r="M153" s="5">
+      <c r="M153" s="7">
         <v>546</v>
       </c>
     </row>
@@ -7046,7 +7060,7 @@
       <c r="L154" s="4">
         <v>13</v>
       </c>
-      <c r="M154" s="5">
+      <c r="M154" s="7">
         <v>588</v>
       </c>
     </row>
@@ -7085,7 +7099,7 @@
       <c r="L155" s="4">
         <v>23</v>
       </c>
-      <c r="M155" s="5">
+      <c r="M155" s="7">
         <v>659</v>
       </c>
     </row>
@@ -7126,7 +7140,7 @@
       <c r="L156" s="4">
         <v>13</v>
       </c>
-      <c r="M156" s="5">
+      <c r="M156" s="7">
         <v>378</v>
       </c>
     </row>
@@ -7165,7 +7179,7 @@
       <c r="L157" s="4">
         <v>26</v>
       </c>
-      <c r="M157" s="5">
+      <c r="M157" s="7">
         <v>563</v>
       </c>
     </row>
@@ -7206,7 +7220,7 @@
       <c r="L158" s="4">
         <v>31</v>
       </c>
-      <c r="M158" s="5">
+      <c r="M158" s="7">
         <v>511</v>
       </c>
     </row>
@@ -7245,7 +7259,7 @@
       <c r="L159" s="4">
         <v>31</v>
       </c>
-      <c r="M159" s="5">
+      <c r="M159" s="7">
         <v>774</v>
       </c>
     </row>
@@ -7253,50 +7267,60 @@
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
-        <v>1.97</v>
-      </c>
-      <c r="D160" s="5">
-        <v>1.9510000000000001</v>
-      </c>
-      <c r="E160" s="5">
-        <v>3.915</v>
-      </c>
-      <c r="F160" s="5">
-        <v>2.3660000000000001</v>
-      </c>
-      <c r="G160" s="5">
-        <v>3.823</v>
-      </c>
-      <c r="H160" s="5">
-        <v>3.9089999999999998</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1.923</v>
-      </c>
-      <c r="J160" s="5">
+      <c r="B160" s="8"/>
+      <c r="C160" s="6">
+        <v>1970</v>
+      </c>
+      <c r="D160" s="6">
+        <v>1951</v>
+      </c>
+      <c r="E160" s="6">
+        <v>3915</v>
+      </c>
+      <c r="F160" s="6">
+        <v>2366</v>
+      </c>
+      <c r="G160" s="6">
+        <v>3823</v>
+      </c>
+      <c r="H160" s="6">
+        <v>3909</v>
+      </c>
+      <c r="I160" s="6">
+        <v>1923</v>
+      </c>
+      <c r="J160" s="7">
         <v>189</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="7">
         <v>7</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="7">
         <v>452</v>
       </c>
-      <c r="M160" s="5">
-        <v>20.504999999999999</v>
+      <c r="M160" s="6">
+        <v>20505</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
